--- a/prep_and_checklists/Staller Macari/Staller Macari_05-26-2025_0.xlsx
+++ b/prep_and_checklists/Staller Macari/Staller Macari_05-26-2025_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcuvin/purveyor_project/prep_and_checklists/Staller Macari/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AFCD1C-130A-2745-9DA2-6ED026BEB0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01C7007-09CE-3F44-83A7-B38EC930F33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36640" yWindow="420" windowWidth="30240" windowHeight="17860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prep_sheet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="158">
   <si>
     <t>Staller Macari 50 Guests 8:00 PM - 11:00 PM Friday, May 30, 2025</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Cook / chop lobster meat</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Cut brioche buns</t>
   </si>
   <si>
@@ -381,13 +378,130 @@
   </si>
   <si>
     <t>Buttermilk</t>
+  </si>
+  <si>
+    <t>8pm-10pm Passed Canapés</t>
+  </si>
+  <si>
+    <t>830pm-1030pm Small Plates</t>
+  </si>
+  <si>
+    <t>2lbs</t>
+  </si>
+  <si>
+    <t>100 pcs</t>
+  </si>
+  <si>
+    <t>1x recipe</t>
+  </si>
+  <si>
+    <t>2 x loaves. * Pull from walk-in freezer</t>
+  </si>
+  <si>
+    <t>1 x squeeze bottle</t>
+  </si>
+  <si>
+    <t>1 quart, use Watermelon radish</t>
+  </si>
+  <si>
+    <t>1 quart</t>
+  </si>
+  <si>
+    <t>4 each</t>
+  </si>
+  <si>
+    <t>1 cup</t>
+  </si>
+  <si>
+    <t>1 pint</t>
+  </si>
+  <si>
+    <t>1 pint, in a squeeze bottle</t>
+  </si>
+  <si>
+    <t>1 x clam shell</t>
+  </si>
+  <si>
+    <t>1 x recipe</t>
+  </si>
+  <si>
+    <t>1 x recipe, in a piping bag</t>
+  </si>
+  <si>
+    <t>100 pcs, *See Pastry</t>
+  </si>
+  <si>
+    <t>130 pcs</t>
+  </si>
+  <si>
+    <t>1x 200g tin</t>
+  </si>
+  <si>
+    <t>1x recipe, in a piping bag</t>
+  </si>
+  <si>
+    <t>1x recipe, in a pipng bag</t>
+  </si>
+  <si>
+    <t>2 cups, * Pull from freezer</t>
+  </si>
+  <si>
+    <t>*Use first from freezer</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>*Pull 1 quart from freezer</t>
+  </si>
+  <si>
+    <t>* pull 15 each from walk-in freezer</t>
+  </si>
+  <si>
+    <t>3 quarts</t>
+  </si>
+  <si>
+    <t>4 pints</t>
+  </si>
+  <si>
+    <t>15 lbs</t>
+  </si>
+  <si>
+    <t>1 case</t>
+  </si>
+  <si>
+    <t>2 quarts</t>
+  </si>
+  <si>
+    <t>12 quarts</t>
+  </si>
+  <si>
+    <t>1 cs, * See AM Prep</t>
+  </si>
+  <si>
+    <t>1 x recipe, * See AM Prep</t>
+  </si>
+  <si>
+    <t>2lbs log</t>
+  </si>
+  <si>
+    <t>256g</t>
+  </si>
+  <si>
+    <t>2 loaves</t>
+  </si>
+  <si>
+    <t>1x clam shell</t>
+  </si>
+  <si>
+    <t>* Fage, 1 cs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,6 +534,25 @@
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -464,7 +597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -474,6 +607,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -776,233 +912,351 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B89"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D25" sqref="D25:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="1" max="1" width="64" customWidth="1"/>
+    <col min="2" max="2" width="45.33203125" customWidth="1"/>
+    <col min="4" max="4" width="48.6640625" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="D5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="B8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-    </row>
-    <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="D9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="D10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="B13" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="B14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="B15" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="B16" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="B17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="B18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-    </row>
-    <row r="21" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="D19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="D20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="D21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="B23" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="B25" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="B26" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+      <c r="B27" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="B28" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="31" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>4</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>4</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>4</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>4</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -1011,7 +1265,7 @@
     </row>
     <row r="38" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>2</v>
@@ -1019,34 +1273,34 @@
     </row>
     <row r="39" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>4</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>4</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>4</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>4</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -1055,7 +1309,7 @@
     </row>
     <row r="45" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>2</v>
@@ -1063,42 +1317,42 @@
     </row>
     <row r="46" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>4</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>4</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>4</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>4</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -1107,7 +1361,7 @@
     </row>
     <row r="53" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>2</v>
@@ -1115,42 +1369,42 @@
     </row>
     <row r="54" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>4</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>4</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>4</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>4</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -1159,7 +1413,7 @@
     </row>
     <row r="61" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>2</v>
@@ -1167,191 +1421,47 @@
     </row>
     <row r="62" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>4</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>4</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>4</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>4</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>4</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
-    </row>
-    <row r="69" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-    </row>
-    <row r="77" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-    </row>
-    <row r="83" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>4</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1363,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1376,7 +1486,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -1386,373 +1496,389 @@
     </row>
     <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>154</v>
+      </c>
       <c r="C13" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="C17" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B35" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="C35" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B39" s="3"/>
+        <v>114</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="C39" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B42" s="3"/>
+        <v>117</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="C42" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
